--- a/data/trans_camb/IP09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP09-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>29,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>19,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>36,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>21,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>15,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 26,58</t>
+          <t>-18,93; 18,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 35,65</t>
+          <t>3,66; 55,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 17,58</t>
+          <t>-14,71; 26,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 26,92</t>
+          <t>-1,29; 38,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 39,04</t>
+          <t>-10,36; 37,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 20,42</t>
+          <t>9,76; 66,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 20,55</t>
+          <t>-4,72; 22,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 29,95</t>
+          <t>3,39; 39,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 13,44</t>
+          <t>-1,46; 33,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>129,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>110,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>73,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>205,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>102,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-10,03%</t>
+          <t>77,9%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 107,7</t>
+          <t>-63,88; 138,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 121,61</t>
+          <t>7,21; 424,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 61,09</t>
+          <t>-49,05; 192,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 138,69</t>
+          <t>-11,76; 423,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,95; 203,87</t>
+          <t>-42,15; 458,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 103,3</t>
+          <t>32,83; 867,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 73,28</t>
+          <t>-16,1; 179,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 107,97</t>
+          <t>6,85; 253,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,42; 45,69</t>
+          <t>-6,25; 245,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29,61</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,7</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,57</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,11</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
+          <t>-3,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 18,23</t>
+          <t>-14,19; 26,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 55,88</t>
+          <t>-17,92; 35,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 26,71</t>
+          <t>-27,68; 17,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 38,37</t>
+          <t>-23,15; 26,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 37,13</t>
+          <t>-20,58; 39,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,76; 66,91</t>
+          <t>-27,51; 20,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 22,69</t>
+          <t>-11,38; 20,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 39,1</t>
+          <t>-10,37; 29,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 33,2</t>
+          <t>-18,28; 13,44</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>129,73%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>-7,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>110,7%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>73,42%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>205,48%</t>
+          <t>-10,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>44,3%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>102,98%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>-10,03%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,88; 138,95</t>
+          <t>-28,2; 107,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,21; 424,18</t>
+          <t>-39,57; 121,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,05; 192,44</t>
+          <t>-54,5; 61,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 423,34</t>
+          <t>-46,69; 138,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 458,15</t>
+          <t>-44,95; 203,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,83; 867,51</t>
+          <t>-59,34; 103,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 179,5</t>
+          <t>-26,93; 73,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,85; 253,2</t>
+          <t>-23,63; 107,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 245,9</t>
+          <t>-43,42; 45,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP09-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,76</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-22,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,11</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,31</t>
+          <t>20,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,75</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,99</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>-13,46</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 24,39</t>
+          <t>-26,08; 24,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 35,8</t>
+          <t>-29,32; 20,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 21,34</t>
+          <t>-42,94; 1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 28,87</t>
+          <t>-27,64; 29,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 48,84</t>
+          <t>-17,69; 55,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 38,97</t>
+          <t>-35,24; 34,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 21,42</t>
+          <t>-19,67; 18,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 35,47</t>
+          <t>-15,47; 26,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 20,64</t>
+          <t>-32,81; 5,83</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>-19,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>-75,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>138,92%</t>
+          <t>70,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,78%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>-45,58%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 141,31</t>
+          <t>-59,37; 173,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 217,52</t>
+          <t>-75,21; 133,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,05; 145,01</t>
+          <t>-100,0; 228,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 450,81</t>
+          <t>-56,27; 308,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 614,03</t>
+          <t>-36,86; 706,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 472,42</t>
+          <t>-82,2; 345,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 127,46</t>
+          <t>-43,95; 108,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 205,02</t>
+          <t>-41,0; 154,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 126,13</t>
+          <t>-84,68; 41,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,61</t>
+          <t>34,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,7</t>
+          <t>15,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,57</t>
+          <t>36,53</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,11</t>
+          <t>26,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
+          <t>22,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 18,23</t>
+          <t>-11,72; 19,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 55,88</t>
+          <t>13,86; 55,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 26,71</t>
+          <t>-4,41; 38,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 38,37</t>
+          <t>-2,52; 34,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 37,13</t>
+          <t>-2,71; 40,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,76; 66,91</t>
+          <t>8,95; 62,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 22,69</t>
+          <t>-2,99; 20,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 39,1</t>
+          <t>10,91; 40,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 33,2</t>
+          <t>7,37; 38,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>129,73%</t>
+          <t>163,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>76,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>110,7%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>73,42%</t>
+          <t>109,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>205,48%</t>
+          <t>228,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,3%</t>
+          <t>47,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>102,98%</t>
+          <t>138,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>120,84%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,88; 138,95</t>
+          <t>-43,54; 152,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 424,18</t>
+          <t>53,94; 442,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,05; 192,44</t>
+          <t>-17,94; 294,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 423,34</t>
+          <t>-20,81; 450,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 458,15</t>
+          <t>-18,81; 595,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,83; 867,51</t>
+          <t>28,07; 872,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 179,5</t>
+          <t>-12,87; 160,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 253,2</t>
+          <t>42,02; 297,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 245,9</t>
+          <t>27,76; 296,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-15,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>35,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>14,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>21,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>21,68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>11,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 26,58</t>
+          <t>-43,91; 12,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 35,65</t>
+          <t>-7,92; 64,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 17,58</t>
+          <t>-25,15; 29,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 26,92</t>
+          <t>-17,34; 34,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 39,04</t>
+          <t>-16,18; 50,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 20,42</t>
+          <t>-9,31; 49,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 20,55</t>
+          <t>-20,3; 16,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 29,95</t>
+          <t>-4,17; 45,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 13,44</t>
+          <t>-9,65; 29,69</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>-38,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>59,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>65,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-10,03%</t>
+          <t>33,3%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 107,7</t>
+          <t>-81,47; 57,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 121,61</t>
+          <t>-12,15; 260,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 61,09</t>
+          <t>-47,84; 127,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 138,69</t>
+          <t>-47,66; 370,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,95; 203,87</t>
+          <t>-51,25; 705,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 103,3</t>
+          <t>-26,41; 562,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 73,28</t>
+          <t>-49,82; 74,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 107,97</t>
+          <t>-9,99; 202,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-43,42; 45,69</t>
+          <t>-22,46; 130,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>22,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,72</t>
+          <t>12,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,26</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>17,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,11</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>-5,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 15,9</t>
+          <t>-2,89; 43,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 30,91</t>
+          <t>-23,42; 35,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 14,21</t>
+          <t>-28,57; 19,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 24,55</t>
+          <t>-24,46; 43,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 30,69</t>
+          <t>-22,72; 46,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 26,0</t>
+          <t>-38,82; 25,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 16,68</t>
+          <t>-4,99; 36,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,24; 28,02</t>
+          <t>-16,41; 31,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 16,85</t>
+          <t>-25,47; 11,78</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>67,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>60,46%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>50,56%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>77,88%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>53,87%</t>
+          <t>-25,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>64,87%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>-18,34%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 67,06</t>
+          <t>-6,27; 232,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,96; 132,31</t>
+          <t>-55,82; 177,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 62,19</t>
+          <t>-63,78; 85,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 162,37</t>
+          <t>-51,93; 503,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,12; 191,37</t>
+          <t>-48,8; 506,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 167,11</t>
+          <t>-78,29; 421,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 79,17</t>
+          <t>-11,98; 174,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,02; 125,12</t>
+          <t>-38,64; 141,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 77,94</t>
+          <t>-59,05; 51,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17,41</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11,51</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>17,72</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12,26</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7,44</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17,11</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; 16,15</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 31,08</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-10,34; 15,43</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 22,48</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 31,62</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 26,84</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 15,76</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7,89; 27,22</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 15,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16,12%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>60,46%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>50,56%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>77,88%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>53,87%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>28,23%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>64,87%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>25,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-22,18; 73,34</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8,36; 140,32</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-29,55; 69,32</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 135,13</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8,64; 183,85</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 175,97</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 73,25</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>25,58; 121,65</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-10,43; 72,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP09-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 24,91</t>
+          <t>-24,27; 24,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 20,98</t>
+          <t>-32,67; 22,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 1,94</t>
+          <t>-46,3; 2,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 29,97</t>
+          <t>-28,84; 30,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 55,91</t>
+          <t>-18,26; 53,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 34,97</t>
+          <t>-35,53; 32,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 18,83</t>
+          <t>-16,96; 18,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 26,97</t>
+          <t>-17,48; 26,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 5,83</t>
+          <t>-33,96; 6,23</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 173,36</t>
+          <t>-57,32; 206,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,21; 133,21</t>
+          <t>-80,05; 149,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 228,2</t>
+          <t>-100,0; 206,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,27; 308,39</t>
+          <t>-56,63; 362,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 706,03</t>
+          <t>-40,22; 472,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,2; 345,89</t>
+          <t>-84,56; 277,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 108,6</t>
+          <t>-41,98; 103,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 154,98</t>
+          <t>-41,59; 146,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-84,68; 41,45</t>
+          <t>-84,27; 41,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 19,89</t>
+          <t>-10,76; 21,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,86; 55,31</t>
+          <t>11,84; 54,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 38,93</t>
+          <t>-4,23; 34,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 34,94</t>
+          <t>-3,74; 34,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 40,4</t>
+          <t>-5,15; 38,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 62,85</t>
+          <t>10,31; 63,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 20,81</t>
+          <t>-5,46; 20,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,91; 40,74</t>
+          <t>11,88; 40,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 38,31</t>
+          <t>6,57; 39,3</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 152,3</t>
+          <t>-42,4; 153,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,94; 442,98</t>
+          <t>41,83; 419,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 294,43</t>
+          <t>-18,11; 247,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 450,93</t>
+          <t>-16,04; 487,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 595,62</t>
+          <t>-25,03; 515,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,07; 872,65</t>
+          <t>39,33; 889,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 160,81</t>
+          <t>-18,09; 165,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,02; 297,42</t>
+          <t>49,97; 320,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,76; 296,55</t>
+          <t>24,71; 299,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 12,93</t>
+          <t>-44,06; 12,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 64,06</t>
+          <t>-7,75; 66,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 29,81</t>
+          <t>-27,09; 28,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 34,41</t>
+          <t>-15,67; 34,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 50,57</t>
+          <t>-19,33; 50,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 49,22</t>
+          <t>-8,13; 48,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 16,18</t>
+          <t>-21,44; 15,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 45,74</t>
+          <t>-3,95; 48,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 29,69</t>
+          <t>-8,65; 28,98</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,47; 57,43</t>
+          <t>-78,4; 68,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 260,07</t>
+          <t>-4,83; 278,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,84; 127,53</t>
+          <t>-48,92; 116,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,66; 370,71</t>
+          <t>-47,92; 328,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 705,98</t>
+          <t>-57,68; 435,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 562,76</t>
+          <t>-25,28; 464,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,82; 74,35</t>
+          <t>-48,39; 66,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 202,3</t>
+          <t>-7,88; 202,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 130,63</t>
+          <t>-18,83; 127,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 43,75</t>
+          <t>-3,19; 45,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 35,93</t>
+          <t>-22,55; 34,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 19,28</t>
+          <t>-28,73; 19,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 43,58</t>
+          <t>-26,35; 43,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 46,6</t>
+          <t>-24,33; 49,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 25,01</t>
+          <t>-39,51; 22,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 36,16</t>
+          <t>-4,68; 36,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 31,43</t>
+          <t>-13,65; 32,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 11,78</t>
+          <t>-24,44; 14,56</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 232,04</t>
+          <t>-5,57; 236,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 177,17</t>
+          <t>-54,62; 183,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,78; 85,6</t>
+          <t>-64,56; 92,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,93; 503,13</t>
+          <t>-50,99; 527,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 506,4</t>
+          <t>-54,6; 529,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-78,29; 421,81</t>
+          <t>-80,35; 252,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 174,46</t>
+          <t>-9,57; 182,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 141,79</t>
+          <t>-36,03; 149,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 51,8</t>
+          <t>-56,61; 69,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 16,15</t>
+          <t>-5,9; 14,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,41; 31,08</t>
+          <t>3,98; 31,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 15,43</t>
+          <t>-9,1; 15,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 22,48</t>
+          <t>-1,09; 23,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,77; 31,62</t>
+          <t>1,88; 31,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 26,84</t>
+          <t>-2,54; 25,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 15,76</t>
+          <t>-1,38; 16,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,89; 27,22</t>
+          <t>7,69; 27,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 15,86</t>
+          <t>-2,42; 15,98</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 73,34</t>
+          <t>-16,71; 69,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,36; 140,32</t>
+          <t>12,42; 135,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 69,32</t>
+          <t>-28,47; 64,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 135,13</t>
+          <t>-6,93; 145,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,64; 183,85</t>
+          <t>6,45; 196,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 175,97</t>
+          <t>-8,67; 153,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 73,25</t>
+          <t>-4,39; 77,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>25,58; 121,65</t>
+          <t>24,58; 124,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 72,25</t>
+          <t>-8,43; 71,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP09-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que padecen actualmente alguna dolencia o enfermedad continuada</t>
+          <t>Menores que padecen actualmente esa dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20,66</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-0,13</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-5,82</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-22,36</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>20,66</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-20,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-13,46</t>
+          <t>-13,22</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 24,96</t>
+          <t>-27,51; 28,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 22,2</t>
+          <t>-14,22; 51,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 2,53</t>
+          <t>-35,15; 32,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 30,45</t>
+          <t>-25,5; 22,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 53,67</t>
+          <t>-34,01; 21,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 32,35</t>
+          <t>-42,33; 4,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 18,71</t>
+          <t>-16,67; 18,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 26,79</t>
+          <t>-15,23; 28,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 6,23</t>
+          <t>-31,38; 8,51</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>70,1%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-6,16%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-0,45%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-19,67%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-75,61%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,11%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>70,1%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,04%</t>
+          <t>-69,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-45,58%</t>
+          <t>-44,76%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,32; 206,4</t>
+          <t>-57,37; 339,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,05; 149,81</t>
+          <t>-39,68; 421,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 206,74</t>
+          <t>-81,72; 337,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,63; 362,11</t>
+          <t>-60,17; 152,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 472,07</t>
+          <t>-79,28; 130,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,56; 277,16</t>
+          <t>-100,0; 108,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 103,7</t>
+          <t>-41,32; 104,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 146,09</t>
+          <t>-40,77; 142,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-84,27; 41,08</t>
+          <t>-85,45; 54,59</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>15,68</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17,47</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>35,61</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>4,36</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>34,51</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>16,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>15,68</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17,47</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,53</t>
+          <t>15,47</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,92</t>
+          <t>21,94</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 21,09</t>
+          <t>-3,76; 32,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,84; 54,01</t>
+          <t>-4,06; 40,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 34,36</t>
+          <t>6,5; 62,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 34,48</t>
+          <t>-12,4; 20,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 38,49</t>
+          <t>12,86; 53,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 63,82</t>
+          <t>-3,83; 35,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 20,76</t>
+          <t>-3,33; 21,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 40,5</t>
+          <t>10,07; 41,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 39,3</t>
+          <t>5,65; 38,53</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>98,01%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>109,23%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>222,64%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>20,72%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>163,89%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>76,34%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>98,01%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>109,23%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>228,38%</t>
+          <t>73,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>120,84%</t>
+          <t>115,67%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,4; 153,17</t>
+          <t>-18,1; 439,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,83; 419,51</t>
+          <t>-23,61; 614,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 247,33</t>
+          <t>18,94; 803,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 487,74</t>
+          <t>-45,75; 151,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 515,69</t>
+          <t>44,23; 427,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,33; 889,93</t>
+          <t>-16,04; 268,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 165,46</t>
+          <t>-14,07; 179,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,97; 320,28</t>
+          <t>38,04; 336,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,71; 299,09</t>
+          <t>20,19; 301,18</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9,7</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,81</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21,08</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-15,65</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>35,55</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,7</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,81</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,19</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,1</t>
+          <t>10,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 12,85</t>
+          <t>-17,13; 35,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 66,05</t>
+          <t>-20,33; 50,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 28,71</t>
+          <t>-7,32; 49,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 34,34</t>
+          <t>-41,01; 14,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 50,01</t>
+          <t>-5,98; 64,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 48,09</t>
+          <t>-25,79; 29,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 15,8</t>
+          <t>-21,98; 17,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 48,52</t>
+          <t>-5,16; 45,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 28,98</t>
+          <t>-11,09; 30,26</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>38,79%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>59,19%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>84,27%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-38,26%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>86,91%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>38,79%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>59,19%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>30,84%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,4; 68,62</t>
+          <t>-44,57; 375,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 278,52</t>
+          <t>-60,17; 438,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,92; 116,66</t>
+          <t>-21,67; 494,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,92; 328,2</t>
+          <t>-80,1; 66,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 435,98</t>
+          <t>-5,07; 270,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 464,16</t>
+          <t>-47,81; 126,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 66,76</t>
+          <t>-50,59; 83,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 202,5</t>
+          <t>-13,49; 183,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 127,17</t>
+          <t>-24,08; 143,74</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>9,5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12,98</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>22,27</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>5,16</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-4,12</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>9,5</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>12,98</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,07</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>-4,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 45,38</t>
+          <t>-24,32; 40,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 34,97</t>
+          <t>-25,39; 49,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 19,44</t>
+          <t>-31,22; 43,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 43,42</t>
+          <t>-4,44; 41,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 49,79</t>
+          <t>-26,43; 36,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 22,49</t>
+          <t>-33,88; 13,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 36,16</t>
+          <t>-1,48; 37,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 32,26</t>
+          <t>-15,22; 31,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 14,56</t>
+          <t>-25,43; 16,47</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>30,18%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>41,22%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>67,11%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>15,56%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-12,42%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>30,18%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>41,22%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-25,64%</t>
+          <t>-23,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-18,34%</t>
+          <t>-14,26%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 236,6</t>
+          <t>-49,84; 381,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 183,76</t>
+          <t>-55,41; 463,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-64,56; 92,81</t>
+          <t>-75,26; 569,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 527,97</t>
+          <t>-10,53; 194,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 529,37</t>
+          <t>-57,91; 189,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,35; 252,82</t>
+          <t>-73,9; 51,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 182,3</t>
+          <t>-5,14; 188,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,03; 149,09</t>
+          <t>-39,02; 138,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,61; 69,22</t>
+          <t>-58,95; 72,44</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>11,51</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17,72</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15,31</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>4,64</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>17,41</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>11,51</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>17,72</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,26</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>6,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 14,99</t>
+          <t>-0,73; 24,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,98; 31,7</t>
+          <t>2,15; 30,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 15,37</t>
+          <t>0,44; 33,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 23,61</t>
+          <t>-6,7; 15,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,88; 31,59</t>
+          <t>2,46; 30,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 25,92</t>
+          <t>-12,58; 13,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 16,1</t>
+          <t>-0,29; 16,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,69; 27,43</t>
+          <t>7,24; 28,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 15,98</t>
+          <t>-1,92; 18,29</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>50,56%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>77,88%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>67,27%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>16,12%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>60,46%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>50,56%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>77,88%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>53,87%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,39%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 69,39</t>
+          <t>-3,38; 162,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,42; 135,3</t>
+          <t>8,12; 191,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 64,67</t>
+          <t>-2,54; 199,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 145,07</t>
+          <t>-18,99; 67,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,45; 196,86</t>
+          <t>6,96; 132,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 153,56</t>
+          <t>-37,31; 55,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 77,14</t>
+          <t>-1,4; 79,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>24,58; 124,21</t>
+          <t>22,02; 125,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 71,01</t>
+          <t>-7,49; 83,37</t>
         </is>
       </c>
     </row>
